--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2722194.811234483</v>
+        <v>2826374.445685553</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +661,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>166.9920602376562</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>62.4543911760235</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -823,19 +825,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>109.3057115828745</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>32.18675846490925</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>205.1812233015602</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>183.1642512458438</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>19.49853158239866</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1111,16 +1113,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>111.2527235042577</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>198.2150714740752</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>238.7813195717458</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1184,19 +1186,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>83.22370915725439</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>86.3189315264972</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1379,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444134</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1528,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>41.74133133758713</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,10 +1584,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>253.3932148259964</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1616,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695709</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1825,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>245.6198119699307</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1844,22 +1846,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722639</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695537</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>36.00502760852061</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>128.5251451036104</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,7 +2013,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2242,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>41.55695577161244</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2296,10 +2298,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>108.3106907504116</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>35.03063761899546</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2536,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2564,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2716,10 +2718,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2764,13 +2766,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>38.19083539427204</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.640152769375668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560544</v>
       </c>
     </row>
     <row r="30">
@@ -2947,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>104.3471808964301</v>
+        <v>41.3370399414308</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>78.14939830226255</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3250,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>86.24032515900548</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3269,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620684</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>100.1755269486889</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3670,13 +3672,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>19.91555826189102</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,10 +3717,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>206.1466683956862</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>27.77749086859535</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>104.8913819999791</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4040,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784702</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>134.5665975534146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1232.150970528559</v>
+        <v>2144.883770458458</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528559</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528559</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528559</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389511</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4325,13 +4327,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,40 +4342,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520486</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794322</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450751</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180637</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X2" t="n">
-        <v>2008.890142568492</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="Y2" t="n">
-        <v>1618.75081059268</v>
+        <v>2531.48361052258</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811077</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999807</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387296</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.918960533274</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601591</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4437,16 +4439,16 @@
         <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
         <v>1317.51949026613</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>847.3980557622424</v>
+        <v>907.8932097569433</v>
       </c>
       <c r="C4" t="n">
-        <v>678.4618728343355</v>
+        <v>738.9570268290364</v>
       </c>
       <c r="D4" t="n">
-        <v>528.3452334219998</v>
+        <v>588.8403874167007</v>
       </c>
       <c r="E4" t="n">
-        <v>380.4321398396066</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218338</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672846</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242372</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242372</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V4" t="n">
-        <v>1169.327103036485</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="W4" t="n">
-        <v>879.9099329995245</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="X4" t="n">
-        <v>879.9099329995245</v>
+        <v>1128.685788900473</v>
       </c>
       <c r="Y4" t="n">
-        <v>847.3980557622424</v>
+        <v>907.8932097569433</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1808.800296392464</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1439.837779452052</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1081.572080845302</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>695.7838282470573</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>284.7979234574497</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>273.7658773428503</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4589,28 +4591,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267229</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>2535.034709923658</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W5" t="n">
-        <v>2182.266054653544</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="X5" t="n">
-        <v>1808.800296392464</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y5" t="n">
-        <v>1808.800296392464</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="6">
@@ -4620,70 +4622,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927784</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>676.468527222536</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="C7" t="n">
-        <v>507.5323442946291</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="D7" t="n">
-        <v>507.5323442946291</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="E7" t="n">
-        <v>359.619250712236</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1817.768604399153</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1596.00198896868</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1306.899122094323</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1306.899122094323</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W7" t="n">
-        <v>1306.899122094323</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="X7" t="n">
-        <v>1078.909571196306</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="Y7" t="n">
-        <v>858.1169920527757</v>
+        <v>478.4305777370295</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1941.127034633561</v>
+        <v>1859.132475219475</v>
       </c>
       <c r="C8" t="n">
-        <v>1572.164517693149</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,10 +4801,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,7 +4813,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4820,34 +4822,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792694</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.48361052258</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X8" t="n">
-        <v>2531.48361052258</v>
+        <v>2635.871647259409</v>
       </c>
       <c r="Y8" t="n">
-        <v>2141.344278546768</v>
+        <v>2245.732315283597</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4874,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>759.2995336040055</v>
+        <v>679.6952191369614</v>
       </c>
       <c r="C10" t="n">
-        <v>759.2995336040055</v>
+        <v>510.7590362090546</v>
       </c>
       <c r="D10" t="n">
-        <v>759.2995336040055</v>
+        <v>360.6423967967188</v>
       </c>
       <c r="E10" t="n">
-        <v>611.3864400216124</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="F10" t="n">
-        <v>464.496492523702</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G10" t="n">
-        <v>296.793655898421</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>150.5764691162788</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1416.425065783662</v>
+        <v>1336.820751316618</v>
       </c>
       <c r="V10" t="n">
-        <v>1161.740577577775</v>
+        <v>1082.136263110731</v>
       </c>
       <c r="W10" t="n">
-        <v>1161.740577577775</v>
+        <v>1082.136263110731</v>
       </c>
       <c r="X10" t="n">
-        <v>1161.740577577775</v>
+        <v>1082.136263110731</v>
       </c>
       <c r="Y10" t="n">
-        <v>940.9479984342453</v>
+        <v>861.3436839672012</v>
       </c>
     </row>
     <row r="11">
@@ -5021,25 +5023,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075809</v>
@@ -5048,7 +5050,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5057,31 +5059,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913855</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>738.7889117913855</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1366.386875345992</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1918.29660558528</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2341.919755080348</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>801.6605733532801</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>632.7243904253733</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253733</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>135.9796239950296</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1721.508338262028</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1721.508338262028</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1432.091168225067</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1204.10161732705</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>983.3090381835199</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,13 +5266,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5279,37 +5281,37 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797193</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797193</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637309</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>913.2907898186992</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373306</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612593</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832229</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>634.927936255316</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235166</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258107</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602305</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396418</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1252.64624922477</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1024.656698326753</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>803.8641191832229</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913854</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>948.5505208511906</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C19" t="n">
-        <v>779.6143379232838</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5695,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.70136564882</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.711814750802</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.9192356072721</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,61 +5740,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615669</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334542</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.78353867329</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667835</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.01152569472</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740628</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385794</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385794</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>2231.588527385794</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>2231.588527385794</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>2231.588527385794</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>2817.800993781639</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>3445.398957336246</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>3997.308687575533</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>4420.931837070601</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>4654.193497445483</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398596</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301209</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.415660022983</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566168</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334425</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606223</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400691</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635737</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>948.5505208511906</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C22" t="n">
-        <v>779.6143379232838</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5932,28 +5934,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854707</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W22" t="n">
-        <v>1578.981115722978</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X22" t="n">
-        <v>1350.99156482496</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y22" t="n">
-        <v>1130.19898568143</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192606</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111727</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.5840502527391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>95.5840502527391</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239597</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>924.8344286397185</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M24" t="n">
-        <v>1522.21291626627</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1051.96493935487</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>883.0287564269629</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>732.9121170146271</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E25" t="n">
-        <v>584.999023432234</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F25" t="n">
-        <v>438.1090759343236</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G25" t="n">
-        <v>270.9129766492036</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>129.2011454914017</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6169,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1272.7575184984</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1051.96493935487</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
@@ -6239,34 +6241,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M27" t="n">
-        <v>1501.8401750111</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.438138565707</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3192.420589669523</v>
+        <v>3194.624135499466</v>
       </c>
       <c r="C28" t="n">
-        <v>3023.484406741616</v>
+        <v>3025.687952571559</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741616</v>
+        <v>2875.571313159224</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>2875.571313159224</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T28" t="n">
-        <v>4440.9326143059</v>
+        <v>4221.331149328842</v>
       </c>
       <c r="U28" t="n">
-        <v>4151.857387650098</v>
+        <v>3932.25592267304</v>
       </c>
       <c r="V28" t="n">
-        <v>3897.172899444211</v>
+        <v>3893.679321264684</v>
       </c>
       <c r="W28" t="n">
-        <v>3607.75572940725</v>
+        <v>3604.262151227724</v>
       </c>
       <c r="X28" t="n">
-        <v>3379.766178509233</v>
+        <v>3376.272600329706</v>
       </c>
       <c r="Y28" t="n">
-        <v>3374.069054499763</v>
+        <v>3376.272600329706</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,28 +6451,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168616</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
@@ -6479,10 +6481,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398594</v>
@@ -6540,25 +6542,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349513</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718132</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3046.798896214208</v>
+        <v>2939.372134388645</v>
       </c>
       <c r="C31" t="n">
-        <v>3046.798896214208</v>
+        <v>2770.435951460739</v>
       </c>
       <c r="D31" t="n">
-        <v>2941.397703389531</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="E31" t="n">
-        <v>2793.484609807138</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="F31" t="n">
-        <v>2646.594662309227</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="G31" t="n">
-        <v>2479.398563024107</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866305</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I31" t="n">
         <v>2337.686731866305</v>
@@ -6652,19 +6654,19 @@
         <v>4221.331149328842</v>
       </c>
       <c r="U31" t="n">
-        <v>4221.331149328842</v>
+        <v>3932.25592267304</v>
       </c>
       <c r="V31" t="n">
-        <v>3966.646661122955</v>
+        <v>3677.571434467153</v>
       </c>
       <c r="W31" t="n">
-        <v>3677.229491085995</v>
+        <v>3388.154264430193</v>
       </c>
       <c r="X31" t="n">
-        <v>3449.239940187977</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y31" t="n">
-        <v>3228.447361044447</v>
+        <v>2939.372134388645</v>
       </c>
     </row>
     <row r="32">
@@ -6695,28 +6697,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852255</v>
@@ -6780,19 +6782,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468473</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O33" t="n">
-        <v>2297.690135143765</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P33" t="n">
         <v>2516.421633107662</v>
@@ -6832,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3189.272672481338</v>
+        <v>2965.647484649469</v>
       </c>
       <c r="C34" t="n">
-        <v>3020.336489553431</v>
+        <v>2796.711301721562</v>
       </c>
       <c r="D34" t="n">
-        <v>2941.39770338953</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="E34" t="n">
-        <v>2793.484609807137</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="F34" t="n">
         <v>2646.594662309226</v>
@@ -6883,25 +6885,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S34" t="n">
-        <v>4690.833152398593</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T34" t="n">
-        <v>4471.231687421535</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U34" t="n">
-        <v>4182.156460765733</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V34" t="n">
-        <v>3927.471972559846</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="W34" t="n">
-        <v>3638.054802522885</v>
+        <v>3455.19996817779</v>
       </c>
       <c r="X34" t="n">
-        <v>3410.065251624868</v>
+        <v>3368.088528623239</v>
       </c>
       <c r="Y34" t="n">
-        <v>3189.272672481338</v>
+        <v>3147.295949479709</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6929,58 +6931,58 @@
         <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>150.8995423128877</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>484.8243144841084</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>980.1499206998673</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M36" t="n">
-        <v>1577.528408326419</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.528408326419</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3173.601046153954</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>3173.601046153954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>3023.484406741618</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159225</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661314</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376194</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.92275029663</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822169</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998109</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729144</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389152</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098137</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671696</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398595</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650997</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.932614305902</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328843</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>4120.143748370571</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>3865.459260164684</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>3576.042090127723</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>3576.042090127723</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>3355.249510984193</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7169,16 +7171,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191926</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349515</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>1307.627092998424</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3093.254426444652</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C40" t="n">
-        <v>2924.318243516745</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D40" t="n">
-        <v>2774.20160410441</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E40" t="n">
-        <v>2626.288510522017</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="F40" t="n">
-        <v>2479.398563024106</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="G40" t="n">
-        <v>2479.398563024106</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="H40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>4013.1021913534</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>4013.1021913534</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>3723.68502131644</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>3495.695470418422</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y40" t="n">
-        <v>3274.902891274892</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="41">
@@ -7385,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075809</v>
@@ -7418,43 +7420,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615668</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334541</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.78353867329</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667834</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694719</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740627</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385793</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385793</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>2381.235169913448</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>2715.159942084669</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L42" t="n">
-        <v>3210.485548300428</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M42" t="n">
-        <v>3807.86403592698</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>4230.570347950414</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>4230.570347950414</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>4654.193497445482</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445482</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398595</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301208</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.415660022982</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566167</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334424</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.14661340069</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635736</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400721</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C43" t="n">
-        <v>513.8536007400721</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D43" t="n">
-        <v>513.8536007400721</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>261.012762333092</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797191</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7576,7 +7578,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570818</v>
@@ -7585,34 +7587,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>916.294644713842</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703119</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,61 +7636,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,28 +7721,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.5840502527391</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>95.5840502527391</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>590.909656468498</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M45" t="n">
-        <v>1188.28814409505</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2940.578503903502</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C46" t="n">
-        <v>2771.642320975595</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D46" t="n">
-        <v>2621.52568156326</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>2473.612587980866</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>2337.686731866306</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>2337.686731866306</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>2337.686731866306</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.92275029663</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822169</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998109</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729144</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.430181389152</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098137</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671696</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398595</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650997</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4623.787448650997</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4404.185983673939</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>4115.110757018137</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>3860.42626881225</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>3571.009098775289</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>3343.019547877272</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>3122.226968733742</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23416,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>32.79125956324779</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>40.90318636666026</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>143.8269525734167</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>38.72167599501745</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>104.8770068749567</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,10 +24186,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>178.2123075861794</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>46.23519869957006</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24652,13 +24654,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>213.946807929556</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>212.9445005827191</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>44.26829212178228</v>
+        <v>107.2784330767816</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25072,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>70.4660747159498</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>139.4693302300317</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25366,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>186.0089474405553</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25558,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>120.3791545843328</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>80.03780599355795</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>139.4693302300325</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>41.54258064659007</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>107.2784330767828</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>10.85445046951662</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>770442.6284946839</v>
+        <v>770442.628494684</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>757589.5960834775</v>
+        <v>757589.5960834773</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>757589.5960834774</v>
+        <v>757589.5960834775</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>757589.5960834774</v>
+        <v>757589.5960834775</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>757589.5960834775</v>
+        <v>757589.5960834774</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>757589.5960834774</v>
+        <v>757589.5960834775</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>757589.5960834775</v>
+        <v>757589.5960834774</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>757589.5960834773</v>
+        <v>757589.5960834774</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>757589.5960834773</v>
+        <v>757589.5960834775</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.4601380333</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.460138034</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442553</v>
+        <v>665895.9447442546</v>
       </c>
       <c r="G2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="H2" t="n">
-        <v>665895.9447442554</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="I2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="J2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="K2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="L2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.944744255</v>
       </c>
       <c r="M2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="N2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.9447442553</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442553</v>
+        <v>665895.9447442549</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972772</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551204</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815723</v>
+        <v>90964.01098815714</v>
       </c>
       <c r="C4" t="n">
         <v>90964.01098815713</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815716</v>
+        <v>90964.01098815707</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680578</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680578</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680569</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
         <v>11776.97621680582</v>
@@ -26439,16 +26441,16 @@
         <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
-        <v>11776.97621680577</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="K4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680578</v>
       </c>
       <c r="L4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
-        <v>11776.97621680577</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="N4" t="n">
         <v>11776.97621680582</v>
@@ -26457,7 +26459,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="P4" t="n">
-        <v>11776.97621680577</v>
+        <v>11776.97621680582</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613932</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26479,7 +26481,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26500,16 +26502,16 @@
         <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-850283.2371391087</v>
+        <v>-850283.2371391098</v>
       </c>
       <c r="C6" t="n">
-        <v>478461.5085884831</v>
+        <v>478461.5085884838</v>
       </c>
       <c r="D6" t="n">
-        <v>478461.5085884832</v>
+        <v>478461.5085884829</v>
       </c>
       <c r="E6" t="n">
-        <v>227583.9768961862</v>
+        <v>227583.9768961868</v>
       </c>
       <c r="F6" t="n">
-        <v>552996.4387035423</v>
+        <v>552996.4387035416</v>
       </c>
       <c r="G6" t="n">
-        <v>552996.4387035422</v>
+        <v>552996.4387035418</v>
       </c>
       <c r="H6" t="n">
-        <v>552996.4387035425</v>
+        <v>552996.4387035419</v>
       </c>
       <c r="I6" t="n">
+        <v>552996.438703542</v>
+      </c>
+      <c r="J6" t="n">
+        <v>335465.2363062646</v>
+      </c>
+      <c r="K6" t="n">
         <v>552996.4387035421</v>
       </c>
-      <c r="J6" t="n">
-        <v>335465.236306265</v>
-      </c>
-      <c r="K6" t="n">
-        <v>552996.4387035422</v>
-      </c>
       <c r="L6" t="n">
+        <v>552996.4387035421</v>
+      </c>
+      <c r="M6" t="n">
+        <v>467941.4107680303</v>
+      </c>
+      <c r="N6" t="n">
         <v>552996.438703542</v>
-      </c>
-      <c r="M6" t="n">
-        <v>467941.4107680301</v>
-      </c>
-      <c r="N6" t="n">
-        <v>552996.4387035421</v>
       </c>
       <c r="O6" t="n">
         <v>552996.4387035422</v>
       </c>
       <c r="P6" t="n">
-        <v>552996.4387035423</v>
+        <v>552996.4387035421</v>
       </c>
     </row>
   </sheetData>
@@ -26787,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="J4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099649</v>
@@ -26820,16 +26822,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26963,16 +26965,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022915</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973565</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>198.2808315333513</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27430,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>307.2767095024456</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27543,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>37.12825106369471</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,22 +27590,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>186.3978948871855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27628,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>89.42654108576028</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>186.5668494326252</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27824,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>170.2704937490432</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,16 +27833,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>114.4569318847794</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>184.5187701894054</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>126.4915721992618</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>13.1287112525837</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>199.8929066791157</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -29578,7 +29580,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>-8.115210091221213e-13</v>
       </c>
     </row>
     <row r="30">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>353.2560498238267</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M15" t="n">
-        <v>469.5567819573398</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32257,7 +32259,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043748</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32315,7 +32317,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
@@ -32327,16 +32329,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32467,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32549,31 +32551,31 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32783,31 +32785,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>615.1181176946642</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33020,25 +33022,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>209.9499448422518</v>
       </c>
       <c r="M27" t="n">
-        <v>575.5951359912044</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214699</v>
@@ -33047,7 +33049,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33260,16 +33262,16 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>169.2687847673334</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
@@ -33281,7 +33283,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33409,40 +33411,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
         <v>125.3175546292901</v>
@@ -33451,7 +33453,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33500,22 +33502,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>354.9153144485695</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33524,7 +33526,7 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
@@ -33567,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796262</v>
@@ -33591,7 +33593,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
@@ -33603,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,40 +33648,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33688,7 +33690,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33734,34 +33736,34 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>184.4971006716321</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473074</v>
+        <v>610.0546826043645</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
@@ -33804,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796262</v>
@@ -33828,7 +33830,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
@@ -33840,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,40 +33885,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33925,7 +33927,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,37 +33970,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422587</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>530.5785304507781</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
@@ -34041,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796262</v>
@@ -34065,7 +34067,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
@@ -34077,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,40 +34122,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34162,7 +34164,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,37 +34207,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422587</v>
+        <v>258.3858318060501</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>558.3177848342766</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
@@ -34278,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796262</v>
@@ -34302,7 +34304,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
@@ -34314,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>251.8861049150239</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.87657862147</v>
+        <v>397.6543049213403</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>213.2742757378053</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M15" t="n">
-        <v>327.4227480353215</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35905,7 +35907,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902427</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35965,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
@@ -35975,16 +35977,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,13 +36117,13 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367765</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
         <v>632.079992146269</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>483.7764056113309</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
         <v>479.4543240367771</v>
@@ -36668,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>71.39556506237764</v>
       </c>
       <c r="M27" t="n">
-        <v>433.4611020691861</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071396</v>
@@ -36695,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>27.13475084531504</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
@@ -36929,7 +36931,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37063,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902405</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>220.9409070342392</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
         <v>264.332588409635</v>
@@ -37236,7 +37238,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
         <v>373.2618997060455</v>
@@ -37300,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902405</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>57.6594740049654</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674332</v>
+        <v>471.5003028244903</v>
       </c>
       <c r="M36" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
         <v>264.332588409635</v>
@@ -37473,7 +37475,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
         <v>373.2618997060455</v>
@@ -37537,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902405</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678997</v>
+        <v>35.97859357997653</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>388.4444965287598</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
         <v>264.332588409635</v>
@@ -37710,7 +37712,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
         <v>373.2618997060455</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678997</v>
+        <v>120.5443928316911</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>426.9760727509433</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
         <v>264.332588409635</v>
@@ -37947,7 +37949,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
         <v>373.2618997060455</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>120.5443928316906</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071398</v>
+        <v>263.67989750701</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2826374.445685553</v>
+        <v>2822361.835671561</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8797196.697983174</v>
+        <v>8797196.697983172</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>166.9920602376562</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>342.039940783375</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -825,7 +825,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>109.3057115828745</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>61.42978662487786</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>17.93291608758675</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>183.1642512458438</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>124.2292170629827</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1119,7 +1119,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>111.2527235042577</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>238.7813195717458</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>401.6865004840406</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1299,16 +1299,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>86.3189315264972</v>
+        <v>218.1043346164863</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.733841663477</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128548</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>41.74133133758713</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101216</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673041</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="14">
@@ -1609,22 +1609,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128548</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1770,13 +1770,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>9.146142788179368</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856558</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>149.1095818503197</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695349</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>128.5251451036104</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>107.4021082756238</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634785</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2247,10 +2247,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>41.55695577161244</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444115</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>27.0291980517616</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>47.84205650381966</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>38.19083539427204</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560544</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>41.3370399414308</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>74.96337793487969</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>86.24032515900548</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>1.799772605716619</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>19.91555826189102</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>27.77749086859535</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>41.33703994142957</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>68.17501931583776</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2144.883770458458</v>
+        <v>1238.038871968307</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>869.076355027895</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>869.076355027895</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>869.076355027895</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810549</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>3072.075344883005</v>
       </c>
       <c r="V2" t="n">
-        <v>2884.252265792695</v>
+        <v>2741.012457539434</v>
       </c>
       <c r="W2" t="n">
-        <v>2531.48361052258</v>
+        <v>2388.24380226932</v>
       </c>
       <c r="X2" t="n">
-        <v>2531.48361052258</v>
+        <v>2014.77804400824</v>
       </c>
       <c r="Y2" t="n">
-        <v>2531.48361052258</v>
+        <v>1624.638712032428</v>
       </c>
     </row>
     <row r="3">
@@ -4400,22 +4400,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
         <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>907.8932097569433</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C4" t="n">
-        <v>738.9570268290364</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D4" t="n">
-        <v>588.8403874167007</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E4" t="n">
         <v>478.4305777370295</v>
@@ -4479,61 +4479,61 @@
         <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U4" t="n">
-        <v>1356.675339798491</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V4" t="n">
-        <v>1356.675339798491</v>
+        <v>1865.244258568413</v>
       </c>
       <c r="W4" t="n">
-        <v>1356.675339798491</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="X4" t="n">
-        <v>1128.685788900473</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="Y4" t="n">
-        <v>907.8932097569433</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>417.124661698547</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4588,31 +4588,31 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3307.491764955041</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3307.491764955041</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>3053.961288228877</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520488</v>
+        <v>3053.961288228877</v>
       </c>
       <c r="W5" t="n">
-        <v>3009.337405520488</v>
+        <v>2701.192632958763</v>
       </c>
       <c r="X5" t="n">
-        <v>2824.323010322666</v>
+        <v>2327.726874697683</v>
       </c>
       <c r="Y5" t="n">
-        <v>2434.183678346854</v>
+        <v>2327.726874697683</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811077</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999807</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387296</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.918960533274</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601591</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4664,10 +4664,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4676,22 +4676,22 @@
         <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>478.4305777370295</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>478.4305777370295</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>478.4305777370295</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J7" t="n">
         <v>111.6347488791189</v>
@@ -4731,46 +4731,46 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
         <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1801.810490449115</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1801.810490449115</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1801.810490449115</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621292</v>
+        <v>1547.126002243228</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251686</v>
+        <v>1257.708832206268</v>
       </c>
       <c r="X7" t="n">
-        <v>478.4305777370295</v>
+        <v>1029.71928130825</v>
       </c>
       <c r="Y7" t="n">
-        <v>478.4305777370295</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1859.132475219475</v>
+        <v>1238.038871968308</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>869.0763550278964</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>869.0763550278964</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>483.2881024296522</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>77.54416254678286</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4813,43 +4813,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520489</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W8" t="n">
-        <v>3009.337405520489</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X8" t="n">
-        <v>2635.871647259409</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y8" t="n">
-        <v>2245.732315283597</v>
+        <v>1624.63871203243</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>679.6952191369614</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="C10" t="n">
-        <v>510.7590362090546</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D10" t="n">
-        <v>360.6423967967188</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E10" t="n">
-        <v>212.7293032143257</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143257</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1336.820751316618</v>
+        <v>1706.987139384971</v>
       </c>
       <c r="V10" t="n">
-        <v>1082.136263110731</v>
+        <v>1452.302651179084</v>
       </c>
       <c r="W10" t="n">
-        <v>1082.136263110731</v>
+        <v>1162.885481142124</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.136263110731</v>
+        <v>934.8959302441062</v>
       </c>
       <c r="Y10" t="n">
-        <v>861.3436839672012</v>
+        <v>714.1033511005761</v>
       </c>
     </row>
     <row r="11">
@@ -5023,70 +5023,70 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111699</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075789</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355934</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068006</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694703</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852251</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.83315239859</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492574</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.25260147478</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612122999</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852884</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591805</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615993</v>
       </c>
     </row>
     <row r="12">
@@ -5108,34 +5108,34 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637302</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718142</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.528408326421</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188003</v>
       </c>
       <c r="C13" t="n">
-        <v>580.8993044876688</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="D13" t="n">
-        <v>430.7826650753331</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="E13" t="n">
-        <v>282.8695714929399</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="F13" t="n">
-        <v>135.9796239950296</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057736</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533434</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327547</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290587</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925698</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490398</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168596</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468466</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589156</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143763</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>411.9631215597619</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>411.9631215597619</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235163</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2113.492509992416</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1824.417283336614</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1569.732795130727</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5506,40 +5506,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L18" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>762.547769317909</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C19" t="n">
-        <v>632.7243904253733</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253733</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.547769317909</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="20">
@@ -5743,22 +5743,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5770,34 +5770,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="21">
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L21" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327652</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048583</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>444.7013164925226</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603202</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.2863919474</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741513</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704552</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806535</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.4026036630049</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362663</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111713</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="24">
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N24" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O24" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
         <v>317.6151975578601</v>
@@ -6144,55 +6144,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,34 +6214,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694708</v>
@@ -6250,25 +6250,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>315.9123021921476</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>913.2907898186995</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373306</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3194.624135499466</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>3025.687952571559</v>
+        <v>465.5282911402534</v>
       </c>
       <c r="D28" t="n">
-        <v>2875.571313159224</v>
+        <v>465.5282911402534</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159224</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661314</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.25592267304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3893.679321264684</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3604.262151227724</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3376.272600329706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>3376.272600329706</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,25 +6451,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
         <v>2206.55866301478</v>
@@ -6478,34 +6478,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2939.372134388645</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>2770.435951460739</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>2728.681365661314</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>2728.681365661314</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661314</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376194</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.25592267304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467153</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3388.154264430193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852255</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6782,25 +6782,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2965.647484649469</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C34" t="n">
-        <v>2796.711301721562</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D34" t="n">
-        <v>2646.594662309226</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="E34" t="n">
-        <v>2646.594662309226</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="F34" t="n">
-        <v>2646.594662309226</v>
+        <v>418.8200494577841</v>
       </c>
       <c r="G34" t="n">
-        <v>2479.398563024106</v>
+        <v>251.623950172664</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3455.19996817779</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3368.088528623239</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>3147.295949479709</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,10 +6949,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7019,25 +7019,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>710.248605371872</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7171,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876693</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>261.8464821474266</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>113.9333885650335</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>113.9333885650335</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>113.9333885650335</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.547769317909</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>214.9229991561132</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>710.248605371872</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>552.8412329032295</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7639,16 +7639,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7657,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>842.6091804069456</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1470.207143961552</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>695.5020655703109</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>526.5658826424041</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>123.7828069546817</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856543</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>57.22910392193995</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>136.2749052347519</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012174</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>68.29586847696859</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>38.72167599501745</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>32.89260457060006</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24135,10 +24135,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>104.8770068749567</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>121.5862749664508</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24603,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>119.4047645948082</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>213.946807929556</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>107.2784330767816</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>65.3313349113442</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>139.4693302300317</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.4949402405072</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>120.3791545843328</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>139.4693302300325</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>107.2784330767828</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>72.11969353038613</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>770442.628494684</v>
+        <v>770442.6284946839</v>
       </c>
     </row>
     <row r="4">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>757589.5960834774</v>
+        <v>757589.5960834773</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>757589.5960834775</v>
+        <v>757589.5960834773</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>757589.5960834774</v>
+        <v>757589.5960834773</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>757589.5960834774</v>
+        <v>757589.5960834773</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>757589.5960834774</v>
+        <v>757589.5960834773</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>757589.5960834774</v>
+        <v>757589.5960834773</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>757589.5960834775</v>
+        <v>757589.5960834774</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380333</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="C2" t="n">
         <v>677359.460138034</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442546</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442546</v>
+        <v>665895.9447442545</v>
       </c>
       <c r="G2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.944744255</v>
       </c>
       <c r="H2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="I2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="J2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>665895.944744255</v>
-      </c>
-      <c r="K2" t="n">
-        <v>665895.9447442549</v>
       </c>
       <c r="L2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="M2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="N2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="O2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="O2" t="n">
-        <v>665895.9447442552</v>
-      </c>
       <c r="P2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442548</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>3.894519977620803e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073545</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>7.559053913076963e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>3.535601535986644e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551164</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815714</v>
+        <v>90964.01098815721</v>
       </c>
       <c r="C4" t="n">
+        <v>90964.01098815721</v>
+      </c>
+      <c r="D4" t="n">
         <v>90964.01098815713</v>
       </c>
-      <c r="D4" t="n">
-        <v>90964.01098815707</v>
-      </c>
       <c r="E4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680603</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.9762168059</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.9762168059</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680592</v>
       </c>
       <c r="I4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680592</v>
       </c>
       <c r="J4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="K4" t="n">
-        <v>11776.97621680578</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="L4" t="n">
         <v>11776.97621680582</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-850283.2371391098</v>
+        <v>-850283.2371391088</v>
       </c>
       <c r="C6" t="n">
-        <v>478461.5085884838</v>
+        <v>478461.5085884834</v>
       </c>
       <c r="D6" t="n">
         <v>478461.5085884829</v>
       </c>
       <c r="E6" t="n">
-        <v>227583.9768961868</v>
+        <v>227236.59764183</v>
       </c>
       <c r="F6" t="n">
-        <v>552996.4387035416</v>
+        <v>552649.0594491845</v>
       </c>
       <c r="G6" t="n">
-        <v>552996.4387035418</v>
+        <v>552649.0594491848</v>
       </c>
       <c r="H6" t="n">
-        <v>552996.4387035419</v>
+        <v>552649.0594491849</v>
       </c>
       <c r="I6" t="n">
-        <v>552996.438703542</v>
+        <v>552649.059449185</v>
       </c>
       <c r="J6" t="n">
-        <v>335465.2363062646</v>
+        <v>335117.8570519076</v>
       </c>
       <c r="K6" t="n">
-        <v>552996.4387035421</v>
+        <v>552649.0594491852</v>
       </c>
       <c r="L6" t="n">
-        <v>552996.4387035421</v>
+        <v>552649.0594491852</v>
       </c>
       <c r="M6" t="n">
-        <v>467941.4107680303</v>
+        <v>467594.0315136733</v>
       </c>
       <c r="N6" t="n">
-        <v>552996.438703542</v>
+        <v>552649.0594491848</v>
       </c>
       <c r="O6" t="n">
-        <v>552996.4387035422</v>
+        <v>552649.059449185</v>
       </c>
       <c r="P6" t="n">
-        <v>552996.4387035421</v>
+        <v>552649.0594491849</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.033794153969713e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.033794153969713e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.033794153969713e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.033794153969713e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26746,10 +26746,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099647</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26813,10 +26813,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26965,16 +26965,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483748</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,32 +27011,32 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022922</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>341.3068326973549</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4.547473508864641e-13</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>341.3068326973555</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973549</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973549</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>198.2808315333513</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>64.83610495833642</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27545,7 +27545,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>37.12825106369471</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>190.7078566989501</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>91.25484570058913</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>186.5668494326252</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>65.53980826845921</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>114.4569318847794</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>126.4915721992618</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>5.189545257670829</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28019,16 +28019,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>199.8929066791157</v>
+        <v>68.10750358912654</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>3.601599019020796e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
     </row>
     <row r="14">
@@ -28329,19 +28329,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>6.033794153969713e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>6.033794153969713e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>6.033794153969713e-14</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.463149601477198e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28392,7 +28392,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>6.033794153969713e-14</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28800,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2.103206497849897e-12</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29055,7 +29055,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29580,7 +29580,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>-8.115210091221213e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,37 +31357,37 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
@@ -31396,7 +31396,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31445,16 +31445,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
         <v>300.7247737883114</v>
@@ -31463,19 +31463,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780294</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348431</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.754615566328</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817572</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162557</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017567</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159421</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460023</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236504</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669219</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078743</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>506.5665344352345</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071781</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.080820443724</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214695</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742436</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275953</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,43 +31910,43 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189902</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121569</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869271</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.405663379626</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355176</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588151</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392043</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106786</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920055</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515926</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670477</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532764</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348431</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.754615566328</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817572</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162557</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017567</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159421</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460023</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236504</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669219</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078743</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420753</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422583</v>
       </c>
       <c r="L15" t="n">
-        <v>248.7449369209195</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862117</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071781</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565781</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742436</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275953</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,43 +32147,43 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189902</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121569</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869271</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.405663379626</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355176</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588151</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392043</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106786</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920055</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515926</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670477</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532764</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,46 +32387,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,46 +32624,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,46 +32861,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663298</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>209.9499448422518</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,46 +33098,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>610.0546826043645</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33894,34 +33894,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>173.8200325543355</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>258.3858318060501</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34386,7 +34386,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34444,16 +34444,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,16 +34462,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>397.6543049213403</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317142</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396417</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193511</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243155</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924724</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902402</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>364.4325005132162</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238448</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992795</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071393</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629534</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,16 +35576,16 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317142</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396417</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193511</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243155</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924724</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902402</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754086</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678993</v>
       </c>
       <c r="L15" t="n">
-        <v>110.1905571410453</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641933</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238448</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121337</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295327</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899072</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060452</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396436</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L27" t="n">
-        <v>71.39556506237764</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,28 +37150,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,28 +37387,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>471.5003028244903</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>35.97859357997653</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>120.5443928316911</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38034,7 +38034,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,16 +38110,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>263.67989750701</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2822361.835671561</v>
+        <v>2824122.365974347</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>243.7491467488892</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>342.039940783375</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>67.37889838709307</v>
       </c>
       <c r="V4" t="n">
-        <v>61.42978662487786</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>271.4965652044106</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>17.93291608758675</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1056,10 +1056,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>124.2292170629827</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>108.8314880852681</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,13 +1138,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>401.6865004840406</v>
+        <v>297.9986308222602</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1299,13 +1299,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>71.67037196991711</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>218.1043346164863</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.733841663477</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695535</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128548</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462237</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101216</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>228.9553704673041</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1609,22 +1609,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695535</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128548</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1770,13 +1770,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856558</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>149.1095818503197</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695349</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457617</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599955</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>107.4021082756238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634785</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2253,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>101.1785556175221</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444115</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>47.84205650381966</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487369</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2806,10 +2806,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>74.96337793487969</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018862</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3432,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>3.006892987834567</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>178.8757728051418</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>68.17501931583776</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>151.6499090771561</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1238.038871968307</v>
+        <v>2222.416181075866</v>
       </c>
       <c r="C2" t="n">
-        <v>869.076355027895</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>869.076355027895</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>869.076355027895</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810549</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883005</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539434</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.24380226932</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X2" t="n">
-        <v>2014.77804400824</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="Y2" t="n">
-        <v>1624.638712032428</v>
+        <v>2609.016021139988</v>
       </c>
     </row>
     <row r="3">
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4427,10 +4427,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>945.3964936596652</v>
+        <v>2242.482637368495</v>
       </c>
       <c r="C4" t="n">
-        <v>776.4603107317583</v>
+        <v>2073.546454440588</v>
       </c>
       <c r="D4" t="n">
-        <v>626.3436713194226</v>
+        <v>2073.546454440588</v>
       </c>
       <c r="E4" t="n">
-        <v>478.4305777370295</v>
+        <v>1925.633360858195</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>1778.743413360284</v>
       </c>
       <c r="G4" t="n">
-        <v>163.837793613838</v>
+        <v>1611.040576735003</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218338</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088492</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088492</v>
+        <v>3014.008748936224</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088492</v>
+        <v>2945.949255615928</v>
       </c>
       <c r="V4" t="n">
-        <v>1865.244258568413</v>
+        <v>2691.264767410042</v>
       </c>
       <c r="W4" t="n">
-        <v>1575.827088531452</v>
+        <v>2691.264767410042</v>
       </c>
       <c r="X4" t="n">
-        <v>1347.837537633435</v>
+        <v>2463.275216512025</v>
       </c>
       <c r="Y4" t="n">
-        <v>1127.044958489905</v>
+        <v>2242.482637368495</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1941.127034633561</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C5" t="n">
-        <v>1572.164517693149</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="F5" t="n">
-        <v>417.124661698547</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4564,13 +4564,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4579,40 +4579,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3307.491764955041</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3307.491764955041</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3053.961288228877</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>3053.961288228877</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W5" t="n">
-        <v>2701.192632958763</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X5" t="n">
-        <v>2327.726874697683</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y5" t="n">
-        <v>2327.726874697683</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811077</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999807</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387296</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.918960533274</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601591</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1801.810490449115</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1801.810490449115</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1801.810490449115</v>
+        <v>1535.847410627122</v>
       </c>
       <c r="V7" t="n">
-        <v>1547.126002243228</v>
+        <v>1281.162922421235</v>
       </c>
       <c r="W7" t="n">
-        <v>1257.708832206268</v>
+        <v>991.7457523842741</v>
       </c>
       <c r="X7" t="n">
-        <v>1029.71928130825</v>
+        <v>763.7562014862567</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.71928130825</v>
+        <v>542.9636223427266</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1238.038871968308</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="C8" t="n">
-        <v>869.0763550278964</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D8" t="n">
-        <v>869.0763550278964</v>
+        <v>764.3411331473101</v>
       </c>
       <c r="E8" t="n">
-        <v>483.2881024296522</v>
+        <v>378.5528805490658</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678286</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4816,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883006</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539436</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269321</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008242</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y8" t="n">
-        <v>1624.63871203243</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>532.4548862703364</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>363.5187033424295</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>213.4020639300938</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1706.987139384971</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1452.302651179084</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1162.885481142124</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>934.8959302441062</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>714.1033511005761</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5020,73 +5020,73 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479718</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111699</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075789</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355934</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068006</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694703</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852251</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.83315239859</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492574</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.25260147478</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612122999</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852884</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591805</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615993</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,37 +5105,37 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.8166630479718</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.8166630479718</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637302</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718142</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.528408326421</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,52 +5175,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188003</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908935</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908935</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908935</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908935</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057736</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H13" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
@@ -5232,19 +5232,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533434</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327547</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290587</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925698</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490398</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168596</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756264</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468466</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962605</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589156</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143763</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580259</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235163</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>2113.492509992416</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1824.417283336614</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1569.732795130727</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1280.315625093766</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1280.315625093766</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5506,43 +5506,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.388077746847</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589157</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143764</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>983.3556038098237</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>814.4194208819168</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>664.3027814695811</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>516.389687887188</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>369.4997403892776</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>202.3036411041575</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5731,73 +5731,73 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168624</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.388077746847</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589157</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143764</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>1042.083634382039</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>821.2910552385084</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362663</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.388077746847</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143764</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,28 +6214,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075822</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
@@ -6250,25 +6250,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143764</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>465.5282911402534</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D28" t="n">
-        <v>465.5282911402534</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>317.6151975578603</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578603</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,61 +6451,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6700,10 +6700,10 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>734.6461798836013</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>565.7099969556945</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>565.7099969556945</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>565.7099969556945</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>418.8200494577841</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>251.623950172664</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>916.2946447138411</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,13 +6949,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>264.0500279773693</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="38">
@@ -7162,31 +7162,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7636,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,10 +7660,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597619</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>244.7670222746419</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2043.880819147006</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1754.805592491204</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856543</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>57.22910392193995</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012174</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>68.29586847696859</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>32.89260457060006</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>124.531099771515</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24603,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>119.4047645948082</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>65.3313349113442</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>57.22910392194183</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25320,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>142.4141550350967</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>39.708880546953</v>
       </c>
     </row>
     <row r="41">
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>72.11969353038613</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>65.75554125013221</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>770442.6284946839</v>
+        <v>770442.628494684</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>757589.5960834774</v>
+        <v>757589.5960834773</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>757589.5960834775</v>
+        <v>757589.5960834773</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>757589.5960834775</v>
+        <v>757589.5960834773</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>757589.5960834774</v>
+        <v>757589.5960834773</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>757589.5960834773</v>
+        <v>757589.5960834774</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>757589.5960834773</v>
+        <v>757589.5960834774</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>757589.5960834773</v>
+        <v>757589.5960834775</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.460138034</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="D2" t="n">
         <v>677359.4601380336</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442546</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442545</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="G2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="H2" t="n">
         <v>665895.944744255</v>
       </c>
-      <c r="H2" t="n">
-        <v>665895.9447442548</v>
-      </c>
       <c r="I2" t="n">
+        <v>665895.9447442557</v>
+      </c>
+      <c r="J2" t="n">
         <v>665895.944744255</v>
-      </c>
-      <c r="J2" t="n">
-        <v>665895.9447442549</v>
       </c>
       <c r="K2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="L2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="M2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="N2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.944744255</v>
       </c>
     </row>
     <row r="3">
@@ -26368,19 +26368,19 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>3.894519977620803e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073545</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
-        <v>7.559053913076963e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.535601535986644e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551164</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
-        <v>1.11379904410569e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815721</v>
+        <v>90964.01098815714</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815721</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.01098815711</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680603</v>
+        <v>11776.97621680578</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.9762168059</v>
+        <v>11776.97621680578</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.9762168059</v>
+        <v>11776.97621680578</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680592</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="I4" t="n">
-        <v>11776.97621680592</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
         <v>11776.97621680582</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-850283.2371391088</v>
+        <v>-850283.2371391089</v>
       </c>
       <c r="C6" t="n">
-        <v>478461.5085884834</v>
+        <v>478461.5085884827</v>
       </c>
       <c r="D6" t="n">
-        <v>478461.5085884829</v>
+        <v>478461.5085884832</v>
       </c>
       <c r="E6" t="n">
-        <v>227236.59764183</v>
+        <v>227549.2389707509</v>
       </c>
       <c r="F6" t="n">
-        <v>552649.0594491845</v>
+        <v>552961.7007781065</v>
       </c>
       <c r="G6" t="n">
-        <v>552649.0594491848</v>
+        <v>552961.7007781067</v>
       </c>
       <c r="H6" t="n">
-        <v>552649.0594491849</v>
+        <v>552961.7007781065</v>
       </c>
       <c r="I6" t="n">
-        <v>552649.059449185</v>
+        <v>552961.7007781072</v>
       </c>
       <c r="J6" t="n">
-        <v>335117.8570519076</v>
+        <v>335430.4983808289</v>
       </c>
       <c r="K6" t="n">
-        <v>552649.0594491852</v>
+        <v>552961.7007781065</v>
       </c>
       <c r="L6" t="n">
-        <v>552649.0594491852</v>
+        <v>552961.7007781063</v>
       </c>
       <c r="M6" t="n">
-        <v>467594.0315136733</v>
+        <v>467906.6728425946</v>
       </c>
       <c r="N6" t="n">
-        <v>552649.0594491848</v>
+        <v>552961.7007781062</v>
       </c>
       <c r="O6" t="n">
-        <v>552649.059449185</v>
+        <v>552961.7007781066</v>
       </c>
       <c r="P6" t="n">
-        <v>552649.0594491849</v>
+        <v>552961.7007781065</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.033794153969713e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.033794153969713e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.033794153969713e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.033794153969713e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26746,10 +26746,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,34 +26789,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099647</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26962,19 +26962,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483748</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973549</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973549</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973549</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>121.5237450221183</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>64.83610495833642</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396202</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>218.8329398185198</v>
       </c>
       <c r="V4" t="n">
-        <v>190.7078566989501</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27624,13 +27624,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>135.3794805373009</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>91.25484570058913</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,10 +27776,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>65.53980826845921</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>177.3803501203448</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,13 +27858,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>5.189545257670829</v>
+        <v>108.8774149194513</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27909,7 +27909,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28019,13 +28019,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>94.35543628911111</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>68.10750358912654</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.601599019020796e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28101,7 +28101,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28329,19 +28329,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>6.033794153969713e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>6.033794153969713e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>6.033794153969713e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.463149601477198e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-5.578167937219307e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28392,7 +28392,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>6.033794153969713e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28800,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29055,7 +29055,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,37 +31120,37 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
@@ -31159,7 +31159,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31208,16 +31208,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
         <v>300.7247737883114</v>
@@ -31226,19 +31226,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780294</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348431</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.754615566328</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162557</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.646344017567</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159421</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460023</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236504</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669219</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078743</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>506.5665344352345</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071781</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.080820443724</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214695</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742436</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275953</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189902</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121569</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869271</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.405663379626</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355176</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588151</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392043</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106786</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920055</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515926</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670477</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532764</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348431</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.754615566328</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162557</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.646344017567</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159421</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460023</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236504</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669219</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078743</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420753</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422583</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862117</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071781</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565781</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742436</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275953</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189902</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121569</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869271</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.405663379626</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355176</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588151</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392043</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106786</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920055</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515926</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670477</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532764</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565771</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,46 +32387,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565771</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,46 +32624,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565771</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,46 +32861,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663298</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565771</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,46 +33098,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>400.5469039565762</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>400.5469039565762</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>403.852496713802</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>400.5469039565762</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>400.5469039565762</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317142</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396417</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367767</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902943</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193511</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243155</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924724</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902402</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>364.4325005132162</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238448</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992795</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071393</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629534</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317142</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396417</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367767</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902943</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193511</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243155</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924724</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902402</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754086</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678993</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674328</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641933</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238448</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121337</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295327</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899072</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060452</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121327</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121327</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902399</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121327</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396436</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121327</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>257.9506595121318</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>257.9506595121318</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,22 +37627,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>272.5107846304687</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>257.9506595121318</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>257.9506595121318</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
